--- a/advisors/excel/register_stat.xlsx
+++ b/advisors/excel/register_stat.xlsx
@@ -205,13 +205,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -481,7 +481,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -492,7 +492,7 @@
   <dimension ref="A2:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,16 +512,16 @@
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -538,13 +538,13 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -679,8 +679,7 @@
       <c r="H16" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:K2"/>
+  <mergeCells count="1">
     <mergeCell ref="B4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
